--- a/docs/assets/disciplinas/LOM3224.xlsx
+++ b/docs/assets/disciplinas/LOM3224.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Propiciar ao aluno os conhecimentos básicos de materiais ópticos e fotônicos visando sua aplicação em dispositivos.</t>
+    <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>519033 - Carlos Yujiro Shigue</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Materiais ópticos. Dispositivos emissores de luz, Detectores de luz. Redes de Bragg. Sensores ópticos. LASER. Fibras ópticas. Aplicações</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,16 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Propriedades ópticas da matéria. Interação da radiação com a matéria. Materiais ópticos: tipos, propriedades e fabricação.
-Dispositivos emissores de luz. Revisão de estrutura da matéria e teoria de bandas. Semicondutores extrínsecos tipo-p tipo-n. Junção pn. Diodos. Processos  de fabricação de semicondutores. Efeito Hall, concentração de portadores. LED:  estrutura, emissão de diferentes comprimentos de onda. Diagrama de cromaticidade.
-Laser de semicondutores. Estrutura, emissão de diferentes comprimentos de onda. Outros tipos de diodos laser. DFB. DBR.
-Detectores de luz. Tipo de detectores. Figuras de mérito num detector. Fotodiodos: PIN, APD. Célula Solar. Fototransistor. Fotomultiplicadoras. Outros.
-Redes de Bragg. Revisão sobre fenômenos de difração. Lei de Bragg. Materiais fotônicos para redes de Bragg, características e propriedades fundamentais. Fabricação de Redes. Aplicações.
-Sensores ópticos. Sensores típicos com redes de Bragg em fibras, por pressão, por temperatura e outros.
-Princípio do LASER. O LASER: ganho, equações de taxa e condição de limiar. Cavidades ressonantes e feixes gaussianos: tipos de laser; lasers sintonizáveis. Conceito de óptica não-linear ti (geração de harmônicos, paramétrica, autofocalização e mecanismos do índice de refração não linear). Aplicações: espectroscopia; metrologia; holografia; fibras ópticas e telecomunicações. Efeitos térmicos e processamento de materiais. Biologia e medicina.
-Fibras ópticas. Tipos de fibras. Estrutura, propagação, atenuação e desempenho. Produção de fibras, revestimentos. Caracterização de fibras ópticas, resposta espectral, impurezas. Diferentes tipos de emendas e perdas.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -113,31 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas expositivas, seminários e exercícios comentados.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média aritmética de duas provas sendo a primeira com peso 1 e a segunda com peso 2.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>WEBER, M. J. Handbook of Optical Materials, Boca Raton: CRC Press, 2003.
-YONG, M. Óptica e Lasers, Edusp, 1998.
-BRAITHWAITE, N. et al. Optoelectronics, Butterworths, 1997.
-DEMTRÖDER, W. Laser Spectroscopy, Spring-Verlag
-YARIV, A. Optical Electronics, Saunders College Publishing.
-MILONNI, P. W.; EBERLY, J. H. Lasers, John Wiley &amp; Sons.
-MELISSINOS, A. Principles of Modern Technology, Cambridge University Press, 1990.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -504,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -629,114 +607,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
